--- a/data/trans_bre/P23_6_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_6_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>66,89%</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>43,36%</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>33,0%</t>
+          <t>71,02%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>40,0%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>34,81%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>45,6%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7,11%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-19,0%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 5,78</t>
+          <t>0,26; 5,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 3,94</t>
+          <t>-0,61; 3,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 4,18</t>
+          <t>-0,94; 4,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 4,21</t>
+          <t>-0,35; 6,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 198,06</t>
+          <t>-2,65; 4,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 138,83</t>
+          <t>-5,8; 1,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-16,03; 107,41</t>
+          <t>1,17; 181,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-20,58; 46,42</t>
+          <t>-12,98; 131,71</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-15,7; 108,95</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-4,22; 118,86</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-21,88; 48,2</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-40,4; 13,78</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>55,83%</t>
+          <t>-5,35</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>27,94%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>54,58%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>34,92%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>37,92%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3,0%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-34,99%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 3,91</t>
+          <t>-3,27; 4,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 4,89</t>
+          <t>-1,36; 4,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 3,81</t>
+          <t>-0,74; 3,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 5,68</t>
+          <t>-1,92; 6,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-42,03; 92,92</t>
+          <t>-5,01; 5,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,94; 183,43</t>
+          <t>-11,48; 1,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-25,27; 125,17</t>
+          <t>-42,17; 97,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-51,27; 114,31</t>
+          <t>-25,28; 167,79</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-14,04; 125,16</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-25,11; 143,82</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-51,92; 104,29</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-61,36; 10,16</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>-3,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-2,89</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>14,66%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-29,75%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>92,63%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-32,0%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>82,35%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-23,36%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 6,23</t>
+          <t>-5,71; 5,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,46; 3,43</t>
+          <t>-15,56; 3,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 9,47</t>
+          <t>-2,33; 8,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-22,2; 6,37</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-59,24; 238,77</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-78,6; 77,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-34,72; 657,85</t>
+          <t>-61,96; 197,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-78,43; 90,48</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-45,61; 545,56</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-83,1; 150,45</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,66%</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,85%</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>37,82%</t>
+          <t>32,85%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>25,1%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>40,58%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>29,69%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7,19%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-23,62%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 3,61</t>
+          <t>-0,26; 3,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 3,21</t>
+          <t>-1,01; 2,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 3,51</t>
+          <t>0,11; 3,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 3,72</t>
+          <t>-1,21; 4,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 91,78</t>
+          <t>-2,11; 3,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,0; 92,13</t>
+          <t>-5,87; -0,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 85,31</t>
+          <t>-5,5; 89,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,87; 45,98</t>
+          <t>-17,95; 81,49</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1,94; 100,45</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-14,33; 84,45</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-19,34; 41,83</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-39,88; -0,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P23_6_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_6_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,94</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,55</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,85</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,25</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,74</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-2,31</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>71,02%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>40,0%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>34,81%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>45,6%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>7,11%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-19,0%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.750470597956175</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.716352499247632</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.880156176987575</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>3.418739258003581</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.7393586838021077</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-2.229303859072519</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.6212790086324773</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.4314130004246468</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.3546027065148526</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.4792955864305388</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.07109495725544046</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.1840677562221174</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,26; 5,49</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,61; 3,62</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,94; 4,44</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,35; 6,65</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-2,65; 4,12</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-5,8; 1,32</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>1,17; 181,94</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-12,98; 131,71</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-15,7; 108,95</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-4,22; 118,86</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-21,88; 48,2</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-40,4; 13,78</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.2475417629697406</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.5969684928381781</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.9256792800118364</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.131904108124881</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-2.649397025828357</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-5.736576927196333</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.07698586165948368</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1329085408161713</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.1569297038351957</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.03045061643145567</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.2188261376021954</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.401093149883622</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.633837423528335</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.917528579944451</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.499713468944623</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>7.047903127097829</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>4.115941098762977</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.302250292363777</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.747953053338895</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.386358842686652</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.097996109714732</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.253760418110718</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.4820190554184641</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.1411770045092814</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,53</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,1</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,47</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,41</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-5,35</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>8,62%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>54,58%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>34,92%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>37,92%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>3,0%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-34,99%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,27; 4,61</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,36; 4,43</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,74; 3,85</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-1,92; 6,53</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-5,01; 5,32</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-11,48; 1,07</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-42,17; 97,36</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-25,28; 167,79</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-14,04; 125,16</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-25,11; 143,82</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-51,92; 104,29</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-61,36; 10,16</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.1023649166600853</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.120972229086342</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.442969027312045</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.488743153627865</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.2285813803328429</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-5.428761918723925</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.01628521179835072</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.5574073815129199</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.3350330425167497</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.3927877752296465</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.03004873005387881</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.3547465702725802</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,47</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,27</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,44</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,89</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>7,95%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-32,0%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>82,35%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-23,36%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.769481257317452</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.36391770487456</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.878383205560215</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-1.99341311159956</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-5.01466486949622</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-11.56991210217352</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.4491579961826846</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2649135618353164</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.1693500099586679</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.2496708697239083</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.5191755275153636</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.6175666744842236</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,71; 5,72</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-15,56; 3,55</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,33; 8,97</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-22,2; 6,37</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-61,96; 197,45</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-78,43; 90,48</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-45,61; 545,56</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-83,1; 150,45</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.614991228118332</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4.473788078023218</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.754098986529307</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>6.65384023283421</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>5.316867764007398</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.9573409517169704</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.829451250567486</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.667456300133239</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.190762006223401</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.460549393956541</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>1.042861257332477</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.08821883828806834</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,69</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,16</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,92</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,21</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-3,06</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>32,85%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>25,1%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>40,58%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>29,69%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>7,19%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-23,62%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>1.007322359761112</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.503565768867745</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3.580654474329868</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-2.717684630965166</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.1987945013316142</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.2627807069181964</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.8774305505926787</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.2228946086348143</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,26; 3,72</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,01; 2,99</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 3,73</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,21; 4,97</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-2,11; 3,6</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-5,87; -0,22</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-5,5; 89,1</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-17,95; 81,49</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>1,94; 100,45</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-14,33; 84,45</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-19,34; 41,83</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-39,88; -0,64</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.411571990985083</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-12.79155767334638</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.073165478012855</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-22.1753943434573</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.5703796307153267</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.757578419503437</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.4327924576301682</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.8319711848310947</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.818553508937828</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>3.894008809768959</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>9.132008105559681</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>6.493974098066917</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>2.320783545262016</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.007025410303332</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>5.96629048323821</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>1.638759081261894</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.422094220830538</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.350447884667411</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.939384317517023</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.347192294610095</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.6990219712883106</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-3.008981271223965</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.2711579182846659</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.2945719123063335</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.4082095609631164</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.3164153334584183</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.07186838013956467</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.2334470292943322</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.6313705940256937</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.6572181553917971</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.1655003363747796</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.042042444686988</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-2.112882432017431</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-5.927105038033375</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1070514199371542</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1141759831580441</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.0296554048469671</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1383794400351772</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.1934349187316389</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.4002893146895108</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.336425264524486</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.282888216564068</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.823440271922192</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>5.12979149417319</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>3.602829487875275</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>-0.1809778235825031</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.7977596510338182</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.9281397381737924</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.018704520227382</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.8678258520404026</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.4183118460204553</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>-0.01438583687501028</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
